--- a/reports/models_evaluations.xlsx
+++ b/reports/models_evaluations.xlsx
@@ -479,13 +479,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.98026388734893</v>
+        <v>0.9826994189117803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9660183566433567</v>
+        <v>0.8130463286713286</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9730889879478289</v>
+        <v>0.8898588854341066</v>
       </c>
       <c r="E4" t="n">
         <v>9152</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01892744479495268</v>
+        <v>0.0300453514739229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03260869565217391</v>
+        <v>0.2880434782608696</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02395209580838323</v>
+        <v>0.05441478439425051</v>
       </c>
       <c r="E5" t="n">
         <v>184</v>
@@ -521,16 +521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9476221079691517</v>
+        <v>0.8026992287917738</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9476221079691517</v>
+        <v>0.8026992287917738</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9476221079691517</v>
+        <v>0.8026992287917738</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9476221079691517</v>
+        <v>0.8026992287917738</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4995956660719413</v>
+        <v>0.5063723851928515</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4993135261477653</v>
+        <v>0.5505449034660991</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4985205418781061</v>
+        <v>0.4721368349141786</v>
       </c>
       <c r="E7" t="n">
         <v>9336</v>
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9613172393808569</v>
+        <v>0.9639238888765868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9476221079691517</v>
+        <v>0.8026992287917738</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9543827767060061</v>
+        <v>0.8733934061505447</v>
       </c>
       <c r="E8" t="n">
         <v>9336</v>
@@ -588,10 +588,10 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0.532586129902706</v>
+        <v>0.5659587949414715</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.2943228781223297</v>
       </c>
     </row>
   </sheetData>

--- a/reports/models_evaluations.xlsx
+++ b/reports/models_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,162 +436,49 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Model: classification_ann_model</t>
+          <t>Model: forecasting_prophet_splited_model</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>precision</t>
+          <t>mae</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>recall</t>
+          <t>mse</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>f1-score</t>
+          <t>rmse</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>roc_auc</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>threshold</t>
+          <t>mape</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>metrics</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9826994189117803</v>
+        <v>7612.847821239554</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8130463286713286</v>
+        <v>81425740.7853</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8898588854341066</v>
+        <v>9023.621267833663</v>
       </c>
       <c r="E4" t="n">
-        <v>9152</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0300453514739229</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2880434782608696</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05441478439425051</v>
-      </c>
-      <c r="E5" t="n">
-        <v>184</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8026992287917738</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8026992287917738</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8026992287917738</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8026992287917738</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5063723851928515</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5505449034660991</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.4721368349141786</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9336</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9639238888765868</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8026992287917738</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8733934061505447</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9336</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.5659587949414715</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.2943228781223297</v>
+        <v>25.6161856113109</v>
       </c>
     </row>
   </sheetData>

--- a/reports/models_evaluations.xlsx
+++ b/reports/models_evaluations.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="forecasting_prophet_splited_model" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,50 +434,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Model: forecasting_prophet_splited_model</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>mse</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>mape</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>metrics</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B2" t="n">
         <v>7612.847821239554</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C2" t="n">
         <v>81425740.7853</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D2" t="n">
         <v>9023.621267833663</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E2" t="n">
         <v>25.6161856113109</v>
       </c>
     </row>

--- a/reports/models_evaluations.xlsx
+++ b/reports/models_evaluations.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="forecasting_prophet_splited_model" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="bert_sentiment" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,42 +436,137 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>precision</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>recall</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mape</t>
+          <t>support</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>metrics</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7612.847821239554</v>
+        <v>0.8473684210526315</v>
       </c>
       <c r="C2" t="n">
-        <v>81425740.7853</v>
+        <v>0.7800387596899225</v>
       </c>
       <c r="D2" t="n">
-        <v>9023.621267833663</v>
+        <v>0.8123107971745711</v>
       </c>
       <c r="E2" t="n">
-        <v>25.6161856113109</v>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2724252491694352</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5307443365695793</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3600439077936334</v>
+      </c>
+      <c r="E3" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.966991341991342</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8678970373967946</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.914768364474021</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8105882352941176</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8105882352941176</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8105882352941176</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8105882352941176</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6955950040711363</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7262267112187656</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6957076898140752</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8675584663764248</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8105882352941176</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8332548154836468</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3400</v>
       </c>
     </row>
   </sheetData>

--- a/reports/models_evaluations.xlsx
+++ b/reports/models_evaluations.xlsx
@@ -1,37 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="578" yWindow="518" windowWidth="27668" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bert_sentiment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="classification_ann_model" sheetId="1" r:id="rId1"/>
+    <sheet name="forecasting_prophet_splited_mod" sheetId="2" r:id="rId2"/>
+    <sheet name="bert_sentiment" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>roc_auc</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>macro avg</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>mse</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>mape</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +107,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,156 +423,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.98310652275926791</v>
+      </c>
+      <c r="C2">
+        <v>0.6867351398601399</v>
+      </c>
+      <c r="D2">
+        <v>0.80862013509166941</v>
+      </c>
+      <c r="E2">
+        <v>9152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2.5823989126741421E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.41304347826086962</v>
+      </c>
+      <c r="D3">
+        <v>4.860889031020147E-2</v>
+      </c>
+      <c r="E3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.68134104541559559</v>
+      </c>
+      <c r="C4">
+        <v>0.68134104541559559</v>
+      </c>
+      <c r="D4">
+        <v>0.68134104541559559</v>
+      </c>
+      <c r="E4">
+        <v>0.68134104541559559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.50446525594300462</v>
+      </c>
+      <c r="C5">
+        <v>0.54988930906050471</v>
+      </c>
+      <c r="D5">
+        <v>0.42861451270093542</v>
+      </c>
+      <c r="E5">
+        <v>9336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.96423977188219157</v>
+      </c>
+      <c r="C6">
+        <v>0.68134104541559559</v>
+      </c>
+      <c r="D6">
+        <v>0.793641335922883</v>
+      </c>
+      <c r="E6">
+        <v>9336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>0.54185649608543629</v>
+      </c>
+      <c r="G7">
+        <v>0.23700970411300659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>7612.8478212395539</v>
+      </c>
+      <c r="C2">
+        <v>81425740.785300002</v>
+      </c>
+      <c r="D2">
+        <v>9023.6212678336633</v>
+      </c>
+      <c r="E2">
+        <v>25.6161856113109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>f1-score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8473684210526315</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7800387596899225</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8123107971745711</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.84736842105263155</v>
+      </c>
+      <c r="C2">
+        <v>0.78003875968992253</v>
+      </c>
+      <c r="D2">
+        <v>0.81231079717457111</v>
+      </c>
+      <c r="E2">
         <v>1032</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2724252491694352</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5307443365695793</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3600439077936334</v>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.27242524916943522</v>
+      </c>
+      <c r="C3">
+        <v>0.53074433656957931</v>
+      </c>
+      <c r="D3">
+        <v>0.36004390779363338</v>
+      </c>
+      <c r="E3">
         <v>309</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.966991341991342</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8678970373967946</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.914768364474021</v>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.96699134199134196</v>
+      </c>
+      <c r="C4">
+        <v>0.86789703739679458</v>
+      </c>
+      <c r="D4">
+        <v>0.91476836447402099</v>
+      </c>
+      <c r="E4">
         <v>2059</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8105882352941176</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8105882352941176</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8105882352941176</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8105882352941176</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6955950040711363</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7262267112187656</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6957076898140752</v>
-      </c>
-      <c r="E6" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.81058823529411761</v>
+      </c>
+      <c r="C5">
+        <v>0.81058823529411761</v>
+      </c>
+      <c r="D5">
+        <v>0.81058823529411761</v>
+      </c>
+      <c r="E5">
+        <v>0.81058823529411761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.69559500407113628</v>
+      </c>
+      <c r="C6">
+        <v>0.72622671121876559</v>
+      </c>
+      <c r="D6">
+        <v>0.69570768981407516</v>
+      </c>
+      <c r="E6">
         <v>3400</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>weighted avg</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8675584663764248</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8105882352941176</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8332548154836468</v>
-      </c>
-      <c r="E7" t="n">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.86755846637642475</v>
+      </c>
+      <c r="C7">
+        <v>0.81058823529411761</v>
+      </c>
+      <c r="D7">
+        <v>0.83325481548364677</v>
+      </c>
+      <c r="E7">
         <v>3400</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>